--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -112,7 +112,7 @@
     <t>-1.6</t>
   </si>
   <si>
-    <t>-0.9</t>
+    <t>-0.6</t>
   </si>
 </sst>
 </file>

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -70,43 +70,43 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.1</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>0.9</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>-5.1</t>
-  </si>
-  <si>
-    <t>-31.2</t>
-  </si>
-  <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>-4.6</t>
+  </si>
+  <si>
+    <t>-29.9</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>6.9</t>
+    <t>7.0</t>
   </si>
   <si>
     <t>-1.6</t>
@@ -727,7 +727,7 @@
         <v>42826</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -738,7 +738,7 @@
         <v>42917</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -749,7 +749,7 @@
         <v>43009</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -760,7 +760,7 @@
         <v>43101</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -782,7 +782,7 @@
         <v>43282</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -793,7 +793,7 @@
         <v>43374</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -804,7 +804,7 @@
         <v>43466</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -815,7 +815,7 @@
         <v>43556</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -826,7 +826,7 @@
         <v>43647</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -837,7 +837,7 @@
         <v>43739</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -848,7 +848,7 @@
         <v>43831</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -859,7 +859,7 @@
         <v>43922</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -870,7 +870,7 @@
         <v>44013</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -881,7 +881,7 @@
         <v>44105</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -892,7 +892,7 @@
         <v>44197</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -903,7 +903,7 @@
         <v>44287</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -914,7 +914,7 @@
         <v>44378</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>-0.6</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -950,6 +953,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>301</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44743</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>-0.6</t>
-  </si>
-  <si>
-    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -961,7 +958,7 @@
         <v>44743</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -958,7 +958,7 @@
         <v>44743</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>-0.6</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,6 +964,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>302</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/us_gdp.xlsx
+++ b/mercados/us_gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -477,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -975,6 +975,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>303</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
